--- a/analysis/home/data/collect.xlsx
+++ b/analysis/home/data/collect.xlsx
@@ -562,9 +562,9 @@
   </sheetPr>
   <dimension ref="A1:AE127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:AE127"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -572,7 +572,7 @@
     <col min="1" max="37" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -667,7 +667,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>45274.709002013886</v>
       </c>
@@ -760,7 +760,7 @@
       </c>
       <c r="AE2" s="4"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>45274.725279143517</v>
       </c>
@@ -853,7 +853,7 @@
       </c>
       <c r="AE3" s="4"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>45274.737642465276</v>
       </c>
@@ -946,7 +946,7 @@
       </c>
       <c r="AE4" s="4"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45274.74362361111</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>45274.761593148149</v>
       </c>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="AE6" s="4"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>45274.775104224536</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="AE7" s="4"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45274.818928749999</v>
       </c>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="AE8" s="4"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>45274.827009363427</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="AE9" s="4"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>45274.841949027774</v>
       </c>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="AE10" s="4"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>45275.601132847223</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>45275.606395196759</v>
       </c>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="AE12" s="4"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>45275.680168333332</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>45275.760493958333</v>
       </c>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="AE14" s="4"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>45275.790259548608</v>
       </c>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="AE15" s="4"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>45275.797317164353</v>
       </c>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AE16" s="4"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>45275.822040601852</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>45276.230171192132</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>45276.239202476849</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>45276.26848510417</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>45276.294912777783</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>45276.313217303235</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>45276.331798020838</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>45276.352399560186</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>45276.355873969907</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>45276.357264664352</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>45276.357519953701</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>45276.359159166663</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>45276.363280277779</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>45276.368858483795</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>45276.369334328701</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>45276.374300925927</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>45276.376899930554</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>45276.380874201393</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>45276.390728564817</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>45276.394048668983</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>45276.408761689818</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>45276.412488333328</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>45276.434019803244</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>45276.441750219907</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>45276.453723009261</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>45276.458822928238</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>45276.494655057875</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>45276.504855833336</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>45276.514510104171</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45276.564142025461</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>45276.583267627313</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>45276.608425902778</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>45276.658540659722</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>45276.682950995368</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>45277.921844386576</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>45280.00228883102</v>
       </c>
